--- a/meals-hoohacks25.xlsx
+++ b/meals-hoohacks25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyasimha/Documents/GitHub/hoohacks25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910BE01-6128-B14C-880D-FE5EC6DB1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3522DA5F-7A7F-5540-9451-083B25D4DC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{ADBD4B98-D25E-7D48-B8EE-0590437E59F7}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="35840" windowHeight="20540" xr2:uid="{ADBD4B98-D25E-7D48-B8EE-0590437E59F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="441">
   <si>
     <t>calories</t>
   </si>
@@ -405,13 +405,968 @@
   </si>
   <si>
     <t>meal_description</t>
+  </si>
+  <si>
+    <t>Meatballs</t>
+  </si>
+  <si>
+    <t>Beef meatballs</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Za'atar at the Castle</t>
+  </si>
+  <si>
+    <t>Falafel</t>
+  </si>
+  <si>
+    <t>Chickpea patties, fried</t>
+  </si>
+  <si>
+    <t>Chicken Shawarma</t>
+  </si>
+  <si>
+    <t>Seasoned grilled chicken</t>
+  </si>
+  <si>
+    <t>Roasted Vegetables</t>
+  </si>
+  <si>
+    <t>Mixed seasonal roasted vegetables</t>
+  </si>
+  <si>
+    <t>Pomegranate Molasses Vinaigrette</t>
+  </si>
+  <si>
+    <t>Pomegranate-based vinaigrette</t>
+  </si>
+  <si>
+    <t>Mango-Lime Vinaigrette</t>
+  </si>
+  <si>
+    <t>Mango-lime dressing with mustard</t>
+  </si>
+  <si>
+    <t>Lemon Tahini Sauce</t>
+  </si>
+  <si>
+    <t>Sesame-based lemon tahini</t>
+  </si>
+  <si>
+    <t>Harissa Sauce</t>
+  </si>
+  <si>
+    <t>Spicy chili pepper sauce</t>
+  </si>
+  <si>
+    <t>Tzatziki Sauce</t>
+  </si>
+  <si>
+    <t>Yogurt cucumber sauce</t>
+  </si>
+  <si>
+    <t>Seasoned Rice</t>
+  </si>
+  <si>
+    <t>Long-grain seasoned rice</t>
+  </si>
+  <si>
+    <t>Cucumber Tomato Salad</t>
+  </si>
+  <si>
+    <t>Chopped cucumbers and tomatoes</t>
+  </si>
+  <si>
+    <t>Flatbread Croutons</t>
+  </si>
+  <si>
+    <t>Toasted flatbread pieces</t>
+  </si>
+  <si>
+    <t>Crispy Chickpeas</t>
+  </si>
+  <si>
+    <t>Roasted chickpeas</t>
+  </si>
+  <si>
+    <t>Sliced Jalape√±os</t>
+  </si>
+  <si>
+    <t>Sliced pickled jalape√±os</t>
+  </si>
+  <si>
+    <t>Hummus</t>
+  </si>
+  <si>
+    <t>Chickpea and tahini blend</t>
+  </si>
+  <si>
+    <t>Tabbouleh</t>
+  </si>
+  <si>
+    <t>Parsley salad with bulgur</t>
+  </si>
+  <si>
+    <t>Sumac Onion</t>
+  </si>
+  <si>
+    <t>Sumac-seasoned onions</t>
+  </si>
+  <si>
+    <t>Sunflower Seeds</t>
+  </si>
+  <si>
+    <t>Roasted sunflower seeds</t>
+  </si>
+  <si>
+    <t>Flax Seeds</t>
+  </si>
+  <si>
+    <t>Whole flax seeds</t>
+  </si>
+  <si>
+    <t>Arugula</t>
+  </si>
+  <si>
+    <t>Fresh arugula leaves</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Fresh baby spinach</t>
+  </si>
+  <si>
+    <t>Olives</t>
+  </si>
+  <si>
+    <t>Sliced black olives</t>
+  </si>
+  <si>
+    <t>Banana Peppers</t>
+  </si>
+  <si>
+    <t>Mild pickled peppers</t>
+  </si>
+  <si>
+    <t>Feta Cheese</t>
+  </si>
+  <si>
+    <t>Crumbled feta</t>
+  </si>
+  <si>
+    <t>Flatbread</t>
+  </si>
+  <si>
+    <t>Traditional soft flatbread</t>
+  </si>
+  <si>
+    <t>Saxbys</t>
+  </si>
+  <si>
+    <t>Breakfast sandwich with egg and cheese</t>
+  </si>
+  <si>
+    <t>Egg and Cheese on a Bagel</t>
+  </si>
+  <si>
+    <t>Breakfast sandwich with bacon, egg, cheese</t>
+  </si>
+  <si>
+    <t>Bacon, Egg and Cheese on a Bagel</t>
+  </si>
+  <si>
+    <t>Breakfast sandwich with turkey sausage</t>
+  </si>
+  <si>
+    <t>Turkey Sausage, Egg and Cheese on a Bagel</t>
+  </si>
+  <si>
+    <t>Plant-based sandwich</t>
+  </si>
+  <si>
+    <t>Plant Powered Breakfast Sandwich</t>
+  </si>
+  <si>
+    <t>Tortilla with egg, cheese, veggies</t>
+  </si>
+  <si>
+    <t>Breakfast Burrito</t>
+  </si>
+  <si>
+    <t>Breakfast burrito with turkey sausage</t>
+  </si>
+  <si>
+    <t>Breakfast Burrito + Turkey Sausage</t>
+  </si>
+  <si>
+    <t>Breakfast burrito with bacon</t>
+  </si>
+  <si>
+    <t>Breakfast Burrito + Bacon</t>
+  </si>
+  <si>
+    <t>Breakfast burrito with steak and habanero sauce</t>
+  </si>
+  <si>
+    <t>Habanero Steak Breakfast Burrito</t>
+  </si>
+  <si>
+    <t>Gluten-free breakfast burrito</t>
+  </si>
+  <si>
+    <t>Gluten Free Breakfast Burrito</t>
+  </si>
+  <si>
+    <t>Plant-based burrito</t>
+  </si>
+  <si>
+    <t>Plant Powered Breakfast Burrito</t>
+  </si>
+  <si>
+    <t>Grilled cheese breakfast sandwich</t>
+  </si>
+  <si>
+    <t>Breakfast Grilled Cheese</t>
+  </si>
+  <si>
+    <t>Grilled cheese with bacon</t>
+  </si>
+  <si>
+    <t>Breakfast Grilled Cheese + Bacon</t>
+  </si>
+  <si>
+    <t>Grilled cheese with turkey sausage</t>
+  </si>
+  <si>
+    <t>Breakfast Grilled Cheese + Turkey Sausage</t>
+  </si>
+  <si>
+    <t>Plant-based grilled cheese</t>
+  </si>
+  <si>
+    <t>Plant Powered Breakfast Grilled Cheese</t>
+  </si>
+  <si>
+    <t>Avocado toast with everything seasoning</t>
+  </si>
+  <si>
+    <t>Everything Avo Toast</t>
+  </si>
+  <si>
+    <t>Toasted plain bagel</t>
+  </si>
+  <si>
+    <t>Plain Bagel</t>
+  </si>
+  <si>
+    <t>Plain bagel with butter</t>
+  </si>
+  <si>
+    <t>Plain Bagel w/ Butter</t>
+  </si>
+  <si>
+    <t>Plain bagel with cream cheese</t>
+  </si>
+  <si>
+    <t>Plain Bagel w/ Cream Cheese</t>
+  </si>
+  <si>
+    <t>Plain bagel with peanut butter</t>
+  </si>
+  <si>
+    <t>Plain Bagel w/ Peanut Butter</t>
+  </si>
+  <si>
+    <t>Twisted Tortilla</t>
+  </si>
+  <si>
+    <t>Corn tortillas with grilled chicken</t>
+  </si>
+  <si>
+    <t>Chicken Tacos</t>
+  </si>
+  <si>
+    <t>The Crossroads</t>
+  </si>
+  <si>
+    <t>Corn tortillas with grilled steak</t>
+  </si>
+  <si>
+    <t>Steak Tacos</t>
+  </si>
+  <si>
+    <t>Corn tortillas with grilled vegetables</t>
+  </si>
+  <si>
+    <t>Veggie Tacos</t>
+  </si>
+  <si>
+    <t>Grilled quesadilla with chicken</t>
+  </si>
+  <si>
+    <t>Chicken Quesadilla</t>
+  </si>
+  <si>
+    <t>Grilled quesadilla with steak</t>
+  </si>
+  <si>
+    <t>Steak Quesadilla</t>
+  </si>
+  <si>
+    <t>Cheese-filled quesadilla</t>
+  </si>
+  <si>
+    <t>Cheese Quesadilla</t>
+  </si>
+  <si>
+    <t>Hoos Hot Chicken</t>
+  </si>
+  <si>
+    <t>Fried chicken sandwich</t>
+  </si>
+  <si>
+    <t>Chicken Sandwich</t>
+  </si>
+  <si>
+    <t>Fried wings with seasoning</t>
+  </si>
+  <si>
+    <t>Chicken Wings</t>
+  </si>
+  <si>
+    <t>Fried chicken tenders</t>
+  </si>
+  <si>
+    <t>Chicken Tenders</t>
+  </si>
+  <si>
+    <t>Crispy fries, cooked in soy</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>Rice Bowl Express</t>
+  </si>
+  <si>
+    <t>Grilled chicken served over rice</t>
+  </si>
+  <si>
+    <t>Chicken over Rice</t>
+  </si>
+  <si>
+    <t>Gyro meat over rice with sauce</t>
+  </si>
+  <si>
+    <t>Gyro over Rice</t>
+  </si>
+  <si>
+    <t>Falafel patties over rice</t>
+  </si>
+  <si>
+    <t>Falafel over Rice</t>
+  </si>
+  <si>
+    <t>Chicken in pita with sauces</t>
+  </si>
+  <si>
+    <t>Chicken Pita Wrap</t>
+  </si>
+  <si>
+    <t>Gyro meat in pita with sauces</t>
+  </si>
+  <si>
+    <t>Gyro Pita Wrap</t>
+  </si>
+  <si>
+    <t>Falafel in pita with sauces</t>
+  </si>
+  <si>
+    <t>Falafel Pita Wrap</t>
+  </si>
+  <si>
+    <t>All Day</t>
+  </si>
+  <si>
+    <t>Tavolino</t>
+  </si>
+  <si>
+    <t>Tofu (soy-based)</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Launch Kitchen</t>
+  </si>
+  <si>
+    <t>Grilled Herb Marinated Chicken</t>
+  </si>
+  <si>
+    <t>Italian-style meatballs</t>
+  </si>
+  <si>
+    <t>Grilled Italian sausage</t>
+  </si>
+  <si>
+    <t>Italian Sausage</t>
+  </si>
+  <si>
+    <t>Cavatappi pasta</t>
+  </si>
+  <si>
+    <t>Cavatappi</t>
+  </si>
+  <si>
+    <t>Wheat-based penne pasta</t>
+  </si>
+  <si>
+    <t>Penne</t>
+  </si>
+  <si>
+    <t>Stuffed pasta, cheese-filled</t>
+  </si>
+  <si>
+    <t>Gluten Free Cheese Tortellini</t>
+  </si>
+  <si>
+    <t>Cheese-filled pasta</t>
+  </si>
+  <si>
+    <t>Cheese Tortellini</t>
+  </si>
+  <si>
+    <t>Meat tomato sauce</t>
+  </si>
+  <si>
+    <t>Bolognese Sauce</t>
+  </si>
+  <si>
+    <t>Classic tomato basil sauce</t>
+  </si>
+  <si>
+    <t>Marinara Sauce</t>
+  </si>
+  <si>
+    <t>Creamy white Alfredo sauce</t>
+  </si>
+  <si>
+    <t>Alfredo Sauce</t>
+  </si>
+  <si>
+    <t>Garlic herb breadstick</t>
+  </si>
+  <si>
+    <t>Garlic Herb Breadstick</t>
+  </si>
+  <si>
+    <t>Roasted root vegetables</t>
+  </si>
+  <si>
+    <t>Herb Roasted Root Vegetables</t>
+  </si>
+  <si>
+    <t>Oven-roasted mushrooms</t>
+  </si>
+  <si>
+    <t>Chopsticks Express</t>
+  </si>
+  <si>
+    <t>Soy-glazed grilled chicken</t>
+  </si>
+  <si>
+    <t>Chicken Teriyaki</t>
+  </si>
+  <si>
+    <t>Beef stir-fry with veggies</t>
+  </si>
+  <si>
+    <t>Beef Stir-Fry</t>
+  </si>
+  <si>
+    <t>Crispy tofu with sesame orange glaze</t>
+  </si>
+  <si>
+    <t>Crispy Orange Sesame Tofu</t>
+  </si>
+  <si>
+    <t>Steamed white rice</t>
+  </si>
+  <si>
+    <t>Vegetable lo mein noodles</t>
+  </si>
+  <si>
+    <t>Vegetable Lo Mein</t>
+  </si>
+  <si>
+    <t>Garlic-seasoned broccoli</t>
+  </si>
+  <si>
+    <t>Gochujang roasted vegetables</t>
+  </si>
+  <si>
+    <t>Gochujang Roasted Vegetables</t>
+  </si>
+  <si>
+    <t>Crispy vegetable egg roll</t>
+  </si>
+  <si>
+    <t>Egg Roll</t>
+  </si>
+  <si>
+    <t>Backyard BBQ</t>
+  </si>
+  <si>
+    <t>BBQ Smoked Chicken Leg</t>
+  </si>
+  <si>
+    <t>Pulled pork with BBQ sauce</t>
+  </si>
+  <si>
+    <t>Smoked Pulled Pork</t>
+  </si>
+  <si>
+    <t>Plant-based BBQ ribs</t>
+  </si>
+  <si>
+    <t>Vegan BBQ Ribs</t>
+  </si>
+  <si>
+    <t>Alabama White BBQ Sauce</t>
+  </si>
+  <si>
+    <t>Alabama White BBQ</t>
+  </si>
+  <si>
+    <t>Tangy mustard BBQ sauce</t>
+  </si>
+  <si>
+    <t>Georgia Mustard BBQ</t>
+  </si>
+  <si>
+    <t>Sweet KC-style BBQ sauce</t>
+  </si>
+  <si>
+    <t>Kansas City Style</t>
+  </si>
+  <si>
+    <t>Bold Memphis BBQ sauce</t>
+  </si>
+  <si>
+    <t>Memphis BBQ</t>
+  </si>
+  <si>
+    <t>Vinegar-based NC BBQ sauce</t>
+  </si>
+  <si>
+    <t>North Carolina BBQ</t>
+  </si>
+  <si>
+    <t>Egg and potato salad</t>
+  </si>
+  <si>
+    <t>Ranch Potato Salad</t>
+  </si>
+  <si>
+    <t>Creamy coleslaw with mayo</t>
+  </si>
+  <si>
+    <t>Creamy Coleslaw</t>
+  </si>
+  <si>
+    <t>Spicy kale &amp; bacon side</t>
+  </si>
+  <si>
+    <t>Spicy Kale &amp; Bacon</t>
+  </si>
+  <si>
+    <t>Macaroni and cheese</t>
+  </si>
+  <si>
+    <t>Mac &amp; Cheese</t>
+  </si>
+  <si>
+    <t>Baked beans</t>
+  </si>
+  <si>
+    <t>Baked Beans</t>
+  </si>
+  <si>
+    <t>Grilled beans with seasoning</t>
+  </si>
+  <si>
+    <t>Grilled Beans</t>
+  </si>
+  <si>
+    <t>Fried hushpuppies</t>
+  </si>
+  <si>
+    <t>Hushpuppies</t>
+  </si>
+  <si>
+    <t>Cheddar jalape√±o cornbread</t>
+  </si>
+  <si>
+    <t>Cheddar Jalapenos Cornbread</t>
+  </si>
+  <si>
+    <t>Soup &amp; Salad</t>
+  </si>
+  <si>
+    <t>Creamy tomato soup</t>
+  </si>
+  <si>
+    <t>Tomato Bisque Soup</t>
+  </si>
+  <si>
+    <t>Loaded baked potato soup</t>
+  </si>
+  <si>
+    <t>Loaded Baked Potato</t>
+  </si>
+  <si>
+    <t>Chicken noodle soup</t>
+  </si>
+  <si>
+    <t>Chicken Noodle Soup</t>
+  </si>
+  <si>
+    <t>Beef &amp; barley soup</t>
+  </si>
+  <si>
+    <t>Beef &amp; Barley Soup</t>
+  </si>
+  <si>
+    <t>Broccoli cheddar soup</t>
+  </si>
+  <si>
+    <t>Broccoli Cheddar Soup</t>
+  </si>
+  <si>
+    <t>Caesar salad</t>
+  </si>
+  <si>
+    <t>Asiago Caesar Salad</t>
+  </si>
+  <si>
+    <t>Tortellini pesto salad</t>
+  </si>
+  <si>
+    <t>Tortellini Pesto Salad</t>
+  </si>
+  <si>
+    <t>Garden salad w/ poppyseed dressing</t>
+  </si>
+  <si>
+    <t>Garden Salad w/ Poppy</t>
+  </si>
+  <si>
+    <t>Spinach, cranberry, walnut, goat cheese salad</t>
+  </si>
+  <si>
+    <t>Cranberry, Walnut, Spinach, &amp; Goat Cheese</t>
+  </si>
+  <si>
+    <t>Simple salad w/ balsamic vinaigrette</t>
+  </si>
+  <si>
+    <t>Salad w/ Balsamic Vinaigrette</t>
+  </si>
+  <si>
+    <t>Dinner roll</t>
+  </si>
+  <si>
+    <t>Dinner Roll</t>
+  </si>
+  <si>
+    <t>Papa Johns</t>
+  </si>
+  <si>
+    <t>Gluten-free cheese pizza slice</t>
+  </si>
+  <si>
+    <t>Cheese Pizza (GF)</t>
+  </si>
+  <si>
+    <t>Gluten-free pepperoni pizza slice</t>
+  </si>
+  <si>
+    <t>Pepperoni Pizza (GF)</t>
+  </si>
+  <si>
+    <t>Gluten-free zesty trio pizza slice</t>
+  </si>
+  <si>
+    <t>Zesty Italian Trio (GF)</t>
+  </si>
+  <si>
+    <t>Gluten-free veggie pizza slice</t>
+  </si>
+  <si>
+    <t>Garden Fresh Pizza (GF)</t>
+  </si>
+  <si>
+    <t>GF pizza with chicken and bacon</t>
+  </si>
+  <si>
+    <t>BBQ Chicken &amp; Bacon (GF)</t>
+  </si>
+  <si>
+    <t>Medium original crust cheese pizza</t>
+  </si>
+  <si>
+    <t>Cheese Pizza (Original - M)</t>
+  </si>
+  <si>
+    <t>Medium original crust pepperoni</t>
+  </si>
+  <si>
+    <t>Pepperoni Pizza (Original - M)</t>
+  </si>
+  <si>
+    <t>Meatball and pepperoni pizza</t>
+  </si>
+  <si>
+    <t>Meatball Pepperoni Pizza (Original - M)</t>
+  </si>
+  <si>
+    <t>1 stick</t>
+  </si>
+  <si>
+    <t>Breadsticks</t>
+  </si>
+  <si>
+    <t>Garlic Parmesan Breadsticks</t>
+  </si>
+  <si>
+    <t>1 knot</t>
+  </si>
+  <si>
+    <t>Garlic Knots</t>
+  </si>
+  <si>
+    <t>Cheesesticks</t>
+  </si>
+  <si>
+    <t>8 pieces</t>
+  </si>
+  <si>
+    <t>Unsauced Wings</t>
+  </si>
+  <si>
+    <t>BBQ Wings</t>
+  </si>
+  <si>
+    <t>Buffalo Wings</t>
+  </si>
+  <si>
+    <t>Honey Chipotle Wings</t>
+  </si>
+  <si>
+    <t>10 pieces</t>
+  </si>
+  <si>
+    <t>Chicken Poppers</t>
+  </si>
+  <si>
+    <t>1819 Grill</t>
+  </si>
+  <si>
+    <t>Fried Egg</t>
+  </si>
+  <si>
+    <t>Runk</t>
+  </si>
+  <si>
+    <t>Mezz</t>
+  </si>
+  <si>
+    <t>Sausage Breakfast Pizza</t>
+  </si>
+  <si>
+    <t>Neopolitan Margherita Pizza</t>
+  </si>
+  <si>
+    <t>Allergen Solutions</t>
+  </si>
+  <si>
+    <t>Southwest Green Beans</t>
+  </si>
+  <si>
+    <t>Turkey Sausage Link</t>
+  </si>
+  <si>
+    <t>Bark &amp; Brine</t>
+  </si>
+  <si>
+    <t>Tots</t>
+  </si>
+  <si>
+    <t>Crispy Tater Tots</t>
+  </si>
+  <si>
+    <t>Buttermilk Pancakes</t>
+  </si>
+  <si>
+    <t>Fluffy, golden brown buttermilk pancakes</t>
+  </si>
+  <si>
+    <t>Omakase</t>
+  </si>
+  <si>
+    <t>Old Fashioned Oatmeal</t>
+  </si>
+  <si>
+    <t>Crisp</t>
+  </si>
+  <si>
+    <t>Fresh Fruit Salad</t>
+  </si>
+  <si>
+    <t>Berry Fruit Medley</t>
+  </si>
+  <si>
+    <t>Vanilla Greek Yogurt</t>
+  </si>
+  <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>Everything Bagel</t>
+  </si>
+  <si>
+    <t>Wahoo Exchange</t>
+  </si>
+  <si>
+    <t>Beef Hot Dog on a Bun</t>
+  </si>
+  <si>
+    <t>Runk Sweet Potato and Black Bean Burger</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Tenders</t>
+  </si>
+  <si>
+    <t>Caprese Melt</t>
+  </si>
+  <si>
+    <t>Seasoned French Fries</t>
+  </si>
+  <si>
+    <t>Herbed Chicken</t>
+  </si>
+  <si>
+    <t>Baked Sweet Potato</t>
+  </si>
+  <si>
+    <t>California Blend Vegetables</t>
+  </si>
+  <si>
+    <t>Black Bean &amp; Corn Salad</t>
+  </si>
+  <si>
+    <t>White Poblano Queso</t>
+  </si>
+  <si>
+    <t>Jasmine Rice</t>
+  </si>
+  <si>
+    <t>Thai Style Stir-fried Vegetables</t>
+  </si>
+  <si>
+    <t>Roasted Corn</t>
+  </si>
+  <si>
+    <t>Chilled Roasted Mushrooms</t>
+  </si>
+  <si>
+    <t>Fresh cage-free eggs fried to order</t>
+  </si>
+  <si>
+    <t>Golden crust topped with savory sausage, fluffy scrambled eggs, and melted American cheese</t>
+  </si>
+  <si>
+    <t>Classic tomato sauce with fresh mozzerella and basil</t>
+  </si>
+  <si>
+    <t>Fresh green beans sauteed with chili powder, cumin and cilantro</t>
+  </si>
+  <si>
+    <t>Deep-fried seasoned shredded potato bites</t>
+  </si>
+  <si>
+    <t>Tater Tots</t>
+  </si>
+  <si>
+    <t>Golden brown savory turkey sausage link</t>
+  </si>
+  <si>
+    <t>Homestyle oatmeal cereal</t>
+  </si>
+  <si>
+    <t>Fresh cantaloupe, honey dew and grapes</t>
+  </si>
+  <si>
+    <t>Pineapple, strawberries and blueberries</t>
+  </si>
+  <si>
+    <t>Creamy vanilla yogurt packed with protein and probiotics. Enjoy alone or with fruit &amp; granola</t>
+  </si>
+  <si>
+    <t>Plain bagel</t>
+  </si>
+  <si>
+    <t>Everything bagel</t>
+  </si>
+  <si>
+    <t>All beef hot dog on a bun.</t>
+  </si>
+  <si>
+    <t>Sweet Potato and Black Bean Burger</t>
+  </si>
+  <si>
+    <t>Deep-fried chicken breast strips</t>
+  </si>
+  <si>
+    <t>Pesto, slices tomato and mozzarella grilled on texas toast</t>
+  </si>
+  <si>
+    <t>Piping hot crispy skin-on French fries with seasoning</t>
+  </si>
+  <si>
+    <t>Chicken thighs marinated in fresh italian herbs, garlic, red wine vinegar and lemon juice</t>
+  </si>
+  <si>
+    <t>Piping hot baked sweet potato</t>
+  </si>
+  <si>
+    <t>Steamed carrots, broccoli and cauliflower</t>
+  </si>
+  <si>
+    <t>Black beans, roasted corn, bell peppers and jalapeno tossed with a cilantro-lime vinaigrette</t>
+  </si>
+  <si>
+    <t>Melted queso cheese made with poblanos, green chiles and tobasco sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bok Choy, Carrot, mushrooms, Cauliflower Stir-Fried with Soy-Coconut Sauce
+</t>
+  </si>
+  <si>
+    <t>Roasted corn tossed with salt and pepper</t>
+  </si>
+  <si>
+    <t>Chilled roasted fresh button mushrooms tossed with garlic and herbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,6 +1389,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -801,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC36609-4B15-494E-9EF2-321484444C3F}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,7 +4362,7716 @@
         <v>121</v>
       </c>
     </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56">
+        <v>280</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>500</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>250</v>
+      </c>
+      <c r="O56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57">
+        <v>160</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>350</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>15</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>250</v>
+      </c>
+      <c r="O57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58">
+        <v>160</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>450</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>250</v>
+      </c>
+      <c r="O58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59">
+        <v>110</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>180</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>250</v>
+      </c>
+      <c r="O59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60">
+        <v>70</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>150</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>250</v>
+      </c>
+      <c r="O60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61">
+        <v>130</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>180</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>250</v>
+      </c>
+      <c r="O61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62">
+        <v>80</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>250</v>
+      </c>
+      <c r="O62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>250</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>250</v>
+      </c>
+      <c r="O63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>250</v>
+      </c>
+      <c r="O64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>170</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>21</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>250</v>
+      </c>
+      <c r="O65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>250</v>
+      </c>
+      <c r="O66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67">
+        <v>110</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>300</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>17</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>250</v>
+      </c>
+      <c r="O67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68">
+        <v>130</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>200</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>18</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>250</v>
+      </c>
+      <c r="O68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>60</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>250</v>
+      </c>
+      <c r="O69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70">
+        <v>110</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>160</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>250</v>
+      </c>
+      <c r="O70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71">
+        <v>130</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>180</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>15</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>250</v>
+      </c>
+      <c r="O71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>40</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="b">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>250</v>
+      </c>
+      <c r="O72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73">
+        <v>70</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>250</v>
+      </c>
+      <c r="O73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74">
+        <v>40</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>250</v>
+      </c>
+      <c r="O74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>250</v>
+      </c>
+      <c r="O75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>250</v>
+      </c>
+      <c r="O76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>350</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>250</v>
+      </c>
+      <c r="O77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>40</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>250</v>
+      </c>
+      <c r="O78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79">
+        <v>80</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>250</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>250</v>
+      </c>
+      <c r="O79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80">
+        <v>240</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>300</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>35</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>250</v>
+      </c>
+      <c r="O80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81">
+        <v>460</v>
+      </c>
+      <c r="E81">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>810</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>9</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>48</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>250</v>
+      </c>
+      <c r="O81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82">
+        <v>600</v>
+      </c>
+      <c r="E82">
+        <v>45</v>
+      </c>
+      <c r="F82">
+        <v>1940</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>39</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>49</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>250</v>
+      </c>
+      <c r="O82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83">
+        <v>540</v>
+      </c>
+      <c r="E83">
+        <v>32</v>
+      </c>
+      <c r="F83">
+        <v>1940</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>32</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>51</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>250</v>
+      </c>
+      <c r="O83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84">
+        <v>450</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <v>460</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>21</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>47</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>250</v>
+      </c>
+      <c r="O84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85">
+        <v>580</v>
+      </c>
+      <c r="E85">
+        <v>31</v>
+      </c>
+      <c r="F85">
+        <v>1070</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>21</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>65</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>250</v>
+      </c>
+      <c r="O85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86">
+        <v>620</v>
+      </c>
+      <c r="E86">
+        <v>40</v>
+      </c>
+      <c r="F86">
+        <v>1430</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>27</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>65</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>250</v>
+      </c>
+      <c r="O86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87">
+        <v>680</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
+      </c>
+      <c r="F87">
+        <v>1730</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>32</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>68</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>250</v>
+      </c>
+      <c r="O87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88">
+        <v>700</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>1930</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>35</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>68</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>250</v>
+      </c>
+      <c r="O88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89">
+        <v>570</v>
+      </c>
+      <c r="E89">
+        <v>36</v>
+      </c>
+      <c r="F89">
+        <v>1310</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>24</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>70</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>250</v>
+      </c>
+      <c r="O89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90">
+        <v>500</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
+      </c>
+      <c r="F90">
+        <v>1662</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>22</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>65</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>250</v>
+      </c>
+      <c r="O90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91">
+        <v>580</v>
+      </c>
+      <c r="E91">
+        <v>28</v>
+      </c>
+      <c r="F91">
+        <v>1662</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>25</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>30</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>250</v>
+      </c>
+      <c r="O91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92">
+        <v>580</v>
+      </c>
+      <c r="E92">
+        <v>36</v>
+      </c>
+      <c r="F92">
+        <v>1973</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>35</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>30</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>250</v>
+      </c>
+      <c r="O92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93">
+        <v>600</v>
+      </c>
+      <c r="E93">
+        <v>34</v>
+      </c>
+      <c r="F93">
+        <v>1760</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>33</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>30</v>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>250</v>
+      </c>
+      <c r="O93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94">
+        <v>370</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>760</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>23</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>34</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>250</v>
+      </c>
+      <c r="O94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95">
+        <v>200</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>800</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>20</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>20</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>250</v>
+      </c>
+      <c r="O95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96">
+        <v>360</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>550</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96">
+        <v>18</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>70</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>250</v>
+      </c>
+      <c r="O96" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97">
+        <v>420</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>650</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>29</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>47</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>250</v>
+      </c>
+      <c r="O97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98">
+        <v>410</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>650</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <v>26</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>50</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>250</v>
+      </c>
+      <c r="O98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99">
+        <v>580</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>640</v>
+      </c>
+      <c r="G99">
+        <v>11</v>
+      </c>
+      <c r="H99">
+        <v>31</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>60</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>250</v>
+      </c>
+      <c r="O99" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100">
+        <v>540</v>
+      </c>
+      <c r="E100">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>850</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>50</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>250</v>
+      </c>
+      <c r="O100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101">
+        <v>660</v>
+      </c>
+      <c r="E101">
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <v>900</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>30</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>52</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>250</v>
+      </c>
+      <c r="O101" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102">
+        <v>430</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>650</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="H102">
+        <v>15</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>48</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>250</v>
+      </c>
+      <c r="O102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103">
+        <v>550</v>
+      </c>
+      <c r="E103">
+        <v>25</v>
+      </c>
+      <c r="F103">
+        <v>950</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>28</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>45</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>250</v>
+      </c>
+      <c r="O103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104">
+        <v>640</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+      <c r="F104">
+        <v>1000</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>33</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>46</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
+        <v>250</v>
+      </c>
+      <c r="O104" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105">
+        <v>430</v>
+      </c>
+      <c r="E105">
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <v>800</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>20</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>38</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>250</v>
+      </c>
+      <c r="O105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106">
+        <v>640</v>
+      </c>
+      <c r="E106">
+        <v>30</v>
+      </c>
+      <c r="F106">
+        <v>1200</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <v>32</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>50</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
+        <v>250</v>
+      </c>
+      <c r="O106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107">
+        <v>595</v>
+      </c>
+      <c r="E107">
+        <v>34</v>
+      </c>
+      <c r="F107">
+        <v>1150</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>28</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>20</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
+        <v>250</v>
+      </c>
+      <c r="O107" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108">
+        <v>560</v>
+      </c>
+      <c r="E108">
+        <v>32</v>
+      </c>
+      <c r="F108">
+        <v>1000</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>26</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>30</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
+        <v>250</v>
+      </c>
+      <c r="O108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109">
+        <v>210</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>300</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>10</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>25</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>250</v>
+      </c>
+      <c r="O109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>239</v>
+      </c>
+      <c r="D110">
+        <v>580</v>
+      </c>
+      <c r="E110">
+        <v>36</v>
+      </c>
+      <c r="F110">
+        <v>850</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>18</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>48</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>250</v>
+      </c>
+      <c r="O110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111">
+        <v>740</v>
+      </c>
+      <c r="E111">
+        <v>38</v>
+      </c>
+      <c r="F111">
+        <v>1000</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>30</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>52</v>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
+        <v>250</v>
+      </c>
+      <c r="O111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112">
+        <v>490</v>
+      </c>
+      <c r="E112">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>650</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>20</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>47</v>
+      </c>
+      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
+        <v>250</v>
+      </c>
+      <c r="O112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113">
+        <v>520</v>
+      </c>
+      <c r="E113">
+        <v>30</v>
+      </c>
+      <c r="F113">
+        <v>850</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>22</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>42</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>250</v>
+      </c>
+      <c r="O113" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114">
+        <v>590</v>
+      </c>
+      <c r="E114">
+        <v>32</v>
+      </c>
+      <c r="F114">
+        <v>950</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>27</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>45</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
+        <v>250</v>
+      </c>
+      <c r="O114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115">
+        <v>430</v>
+      </c>
+      <c r="E115">
+        <v>12</v>
+      </c>
+      <c r="F115">
+        <v>700</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>18</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>40</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>250</v>
+      </c>
+      <c r="O115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D116">
+        <v>260</v>
+      </c>
+      <c r="E116">
+        <v>15</v>
+      </c>
+      <c r="F116">
+        <v>200</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>15</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <v>6</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" t="b">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>125</v>
+      </c>
+      <c r="O116" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" t="s">
+        <v>255</v>
+      </c>
+      <c r="D117">
+        <v>190</v>
+      </c>
+      <c r="E117">
+        <v>26</v>
+      </c>
+      <c r="F117">
+        <v>300</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>7</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
+        <v>125</v>
+      </c>
+      <c r="O117" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>251</v>
+      </c>
+      <c r="B118" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118">
+        <v>230</v>
+      </c>
+      <c r="E118">
+        <v>16</v>
+      </c>
+      <c r="F118">
+        <v>500</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>18</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>125</v>
+      </c>
+      <c r="O118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" t="s">
+        <v>257</v>
+      </c>
+      <c r="C119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119">
+        <v>350</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
+      </c>
+      <c r="F119">
+        <v>600</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>30</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s">
+        <v>125</v>
+      </c>
+      <c r="O119" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>251</v>
+      </c>
+      <c r="B120" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120">
+        <v>200</v>
+      </c>
+      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <v>180</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>40</v>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>125</v>
+      </c>
+      <c r="O120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121">
+        <v>190</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121">
+        <v>160</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>38</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
+        <v>125</v>
+      </c>
+      <c r="O121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122">
+        <v>310</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <v>400</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>35</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="b">
+        <v>1</v>
+      </c>
+      <c r="M122" t="b">
+        <v>1</v>
+      </c>
+      <c r="N122" t="s">
+        <v>125</v>
+      </c>
+      <c r="O122" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" t="s">
+        <v>266</v>
+      </c>
+      <c r="D123">
+        <v>330</v>
+      </c>
+      <c r="E123">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>450</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>10</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>36</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123" t="b">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
+        <v>125</v>
+      </c>
+      <c r="O123" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124">
+        <v>370</v>
+      </c>
+      <c r="E124">
+        <v>15</v>
+      </c>
+      <c r="F124">
+        <v>550</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>20</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>18</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
+        <v>1</v>
+      </c>
+      <c r="M124" t="b">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
+        <v>125</v>
+      </c>
+      <c r="O124" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125">
+        <v>90</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>300</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>8</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" t="b">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
+        <v>125</v>
+      </c>
+      <c r="O125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126">
+        <v>190</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>400</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>15</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" t="b">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
+        <v>125</v>
+      </c>
+      <c r="O126" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127">
+        <v>170</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>420</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>7</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>20</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>125</v>
+      </c>
+      <c r="O127" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128">
+        <v>50</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>6</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="b">
+        <v>1</v>
+      </c>
+      <c r="M128" t="b">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
+        <v>125</v>
+      </c>
+      <c r="O128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" t="s">
+        <v>96</v>
+      </c>
+      <c r="D129">
+        <v>60</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>120</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>5</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="b">
+        <v>1</v>
+      </c>
+      <c r="M129" t="b">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
+        <v>125</v>
+      </c>
+      <c r="O129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130">
+        <v>230</v>
+      </c>
+      <c r="E130">
+        <v>25</v>
+      </c>
+      <c r="F130">
+        <v>550</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>8</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>10</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
+        <v>1</v>
+      </c>
+      <c r="N130" t="s">
+        <v>125</v>
+      </c>
+      <c r="O130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131">
+        <v>230</v>
+      </c>
+      <c r="E131">
+        <v>22</v>
+      </c>
+      <c r="F131">
+        <v>600</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>14</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>8</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
+        <v>125</v>
+      </c>
+      <c r="O131" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132">
+        <v>240</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>520</v>
+      </c>
+      <c r="G132">
+        <v>6</v>
+      </c>
+      <c r="H132">
+        <v>10</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>12</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
+        <v>125</v>
+      </c>
+      <c r="O132" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133">
+        <v>100</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>22</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="b">
+        <v>1</v>
+      </c>
+      <c r="M133" t="b">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
+        <v>125</v>
+      </c>
+      <c r="O133" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" t="s">
+        <v>286</v>
+      </c>
+      <c r="C134" t="s">
+        <v>287</v>
+      </c>
+      <c r="D134">
+        <v>210</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <v>300</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>8</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>28</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>125</v>
+      </c>
+      <c r="O134" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" t="s">
+        <v>288</v>
+      </c>
+      <c r="C135" t="s">
+        <v>80</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>40</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>4</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="b">
+        <v>1</v>
+      </c>
+      <c r="M135" t="b">
+        <v>1</v>
+      </c>
+      <c r="N135" t="s">
+        <v>125</v>
+      </c>
+      <c r="O135" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" t="s">
+        <v>290</v>
+      </c>
+      <c r="D136">
+        <v>60</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>120</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>6</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" t="b">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
+        <v>125</v>
+      </c>
+      <c r="O136" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" t="s">
+        <v>292</v>
+      </c>
+      <c r="D137">
+        <v>120</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>250</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>6</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>12</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="b">
+        <v>1</v>
+      </c>
+      <c r="M137" t="b">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
+        <v>125</v>
+      </c>
+      <c r="O137" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>293</v>
+      </c>
+      <c r="B138" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" t="s">
+        <v>294</v>
+      </c>
+      <c r="D138">
+        <v>310</v>
+      </c>
+      <c r="E138">
+        <v>30</v>
+      </c>
+      <c r="F138">
+        <v>750</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>18</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>6</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>1</v>
+      </c>
+      <c r="N138" t="s">
+        <v>125</v>
+      </c>
+      <c r="O138" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>293</v>
+      </c>
+      <c r="B139" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" t="s">
+        <v>296</v>
+      </c>
+      <c r="D139">
+        <v>240</v>
+      </c>
+      <c r="E139">
+        <v>28</v>
+      </c>
+      <c r="F139">
+        <v>700</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>12</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>5</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>1</v>
+      </c>
+      <c r="N139" t="s">
+        <v>125</v>
+      </c>
+      <c r="O139" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>293</v>
+      </c>
+      <c r="B140" t="s">
+        <v>297</v>
+      </c>
+      <c r="C140" t="s">
+        <v>298</v>
+      </c>
+      <c r="D140">
+        <v>200</v>
+      </c>
+      <c r="E140">
+        <v>12</v>
+      </c>
+      <c r="F140">
+        <v>620</v>
+      </c>
+      <c r="G140">
+        <v>6</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>15</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="b">
+        <v>1</v>
+      </c>
+      <c r="M140" t="b">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
+        <v>125</v>
+      </c>
+      <c r="O140" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" t="s">
+        <v>299</v>
+      </c>
+      <c r="C141" t="s">
+        <v>300</v>
+      </c>
+      <c r="D141">
+        <v>320</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>400</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>25</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>6</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="b">
+        <v>1</v>
+      </c>
+      <c r="M141" t="b">
+        <v>1</v>
+      </c>
+      <c r="N141" t="s">
+        <v>125</v>
+      </c>
+      <c r="O141" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" t="s">
+        <v>301</v>
+      </c>
+      <c r="C142" t="s">
+        <v>302</v>
+      </c>
+      <c r="D142">
+        <v>70</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>250</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="b">
+        <v>1</v>
+      </c>
+      <c r="M142" t="b">
+        <v>1</v>
+      </c>
+      <c r="N142" t="s">
+        <v>125</v>
+      </c>
+      <c r="O142" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143">
+        <v>90</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>200</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>10</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="b">
+        <v>1</v>
+      </c>
+      <c r="M143" t="b">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>125</v>
+      </c>
+      <c r="O143" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" t="s">
+        <v>306</v>
+      </c>
+      <c r="D144">
+        <v>100</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>280</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>9</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="b">
+        <v>1</v>
+      </c>
+      <c r="M144" t="b">
+        <v>1</v>
+      </c>
+      <c r="N144" t="s">
+        <v>125</v>
+      </c>
+      <c r="O144" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" t="s">
+        <v>308</v>
+      </c>
+      <c r="D145">
+        <v>45</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>180</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>4</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="b">
+        <v>1</v>
+      </c>
+      <c r="M145" t="b">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
+        <v>125</v>
+      </c>
+      <c r="O145" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" t="s">
+        <v>310</v>
+      </c>
+      <c r="D146">
+        <v>170</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>300</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>12</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>10</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="b">
+        <v>1</v>
+      </c>
+      <c r="M146" t="b">
+        <v>1</v>
+      </c>
+      <c r="N146" t="s">
+        <v>125</v>
+      </c>
+      <c r="O146" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
+        <v>311</v>
+      </c>
+      <c r="C147" t="s">
+        <v>312</v>
+      </c>
+      <c r="D147">
+        <v>60</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>120</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>4</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>6</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147" t="b">
+        <v>1</v>
+      </c>
+      <c r="N147" t="s">
+        <v>125</v>
+      </c>
+      <c r="O147" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" t="s">
+        <v>314</v>
+      </c>
+      <c r="D148">
+        <v>110</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>240</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>7</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>8</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
+        <v>125</v>
+      </c>
+      <c r="O148" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" t="s">
+        <v>316</v>
+      </c>
+      <c r="D149">
+        <v>280</v>
+      </c>
+      <c r="E149">
+        <v>9</v>
+      </c>
+      <c r="F149">
+        <v>480</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>15</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>25</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="b">
+        <v>1</v>
+      </c>
+      <c r="M149" t="b">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
+        <v>125</v>
+      </c>
+      <c r="O149" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" t="s">
+        <v>318</v>
+      </c>
+      <c r="D150">
+        <v>220</v>
+      </c>
+      <c r="E150">
+        <v>6</v>
+      </c>
+      <c r="F150">
+        <v>300</v>
+      </c>
+      <c r="G150">
+        <v>6</v>
+      </c>
+      <c r="H150">
+        <v>5</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+      <c r="J150">
+        <v>20</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="b">
+        <v>1</v>
+      </c>
+      <c r="M150" t="b">
+        <v>1</v>
+      </c>
+      <c r="N150" t="s">
+        <v>125</v>
+      </c>
+      <c r="O150" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" t="s">
+        <v>319</v>
+      </c>
+      <c r="C151" t="s">
+        <v>320</v>
+      </c>
+      <c r="D151">
+        <v>60</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>150</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>6</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="b">
+        <v>1</v>
+      </c>
+      <c r="M151" t="b">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>125</v>
+      </c>
+      <c r="O151" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" t="s">
+        <v>322</v>
+      </c>
+      <c r="D152">
+        <v>190</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152">
+        <v>350</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>15</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
+        <v>1</v>
+      </c>
+      <c r="M152" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>125</v>
+      </c>
+      <c r="O152" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>293</v>
+      </c>
+      <c r="B153" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" t="s">
+        <v>324</v>
+      </c>
+      <c r="D153">
+        <v>210</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>400</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>9</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>18</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" t="b">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
+        <v>125</v>
+      </c>
+      <c r="O153" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>325</v>
+      </c>
+      <c r="B154" t="s">
+        <v>326</v>
+      </c>
+      <c r="C154" t="s">
+        <v>327</v>
+      </c>
+      <c r="D154">
+        <v>200</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>450</v>
+      </c>
+      <c r="G154">
+        <v>4</v>
+      </c>
+      <c r="H154">
+        <v>12</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>14</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="b">
+        <v>1</v>
+      </c>
+      <c r="M154" t="b">
+        <v>1</v>
+      </c>
+      <c r="N154" t="s">
+        <v>125</v>
+      </c>
+      <c r="O154" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>325</v>
+      </c>
+      <c r="B155" t="s">
+        <v>328</v>
+      </c>
+      <c r="C155" t="s">
+        <v>329</v>
+      </c>
+      <c r="D155">
+        <v>220</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>500</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <v>15</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>20</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="b">
+        <v>1</v>
+      </c>
+      <c r="M155" t="b">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
+        <v>125</v>
+      </c>
+      <c r="O155" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>325</v>
+      </c>
+      <c r="B156" t="s">
+        <v>330</v>
+      </c>
+      <c r="C156" t="s">
+        <v>331</v>
+      </c>
+      <c r="D156">
+        <v>120</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>600</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>4</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>14</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="b">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
+        <v>125</v>
+      </c>
+      <c r="O156" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157" t="s">
+        <v>332</v>
+      </c>
+      <c r="C157" t="s">
+        <v>333</v>
+      </c>
+      <c r="D157">
+        <v>120</v>
+      </c>
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>580</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>10</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="b">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
+        <v>125</v>
+      </c>
+      <c r="O157" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158" t="s">
+        <v>334</v>
+      </c>
+      <c r="C158" t="s">
+        <v>335</v>
+      </c>
+      <c r="D158">
+        <v>240</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+      <c r="F158">
+        <v>700</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158">
+        <v>18</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>14</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="b">
+        <v>1</v>
+      </c>
+      <c r="M158" t="b">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
+        <v>125</v>
+      </c>
+      <c r="O158" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>325</v>
+      </c>
+      <c r="B159" t="s">
+        <v>336</v>
+      </c>
+      <c r="C159" t="s">
+        <v>337</v>
+      </c>
+      <c r="D159">
+        <v>130</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>400</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>10</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>8</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="b">
+        <v>1</v>
+      </c>
+      <c r="M159" t="b">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
+        <v>125</v>
+      </c>
+      <c r="O159" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>325</v>
+      </c>
+      <c r="B160" t="s">
+        <v>338</v>
+      </c>
+      <c r="C160" t="s">
+        <v>339</v>
+      </c>
+      <c r="D160">
+        <v>220</v>
+      </c>
+      <c r="E160">
+        <v>7</v>
+      </c>
+      <c r="F160">
+        <v>450</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
+        <v>12</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>22</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="b">
+        <v>1</v>
+      </c>
+      <c r="M160" t="b">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
+        <v>125</v>
+      </c>
+      <c r="O160" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>340</v>
+      </c>
+      <c r="C161" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161">
+        <v>100</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>250</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>9</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="b">
+        <v>1</v>
+      </c>
+      <c r="M161" t="b">
+        <v>1</v>
+      </c>
+      <c r="N161" t="s">
+        <v>125</v>
+      </c>
+      <c r="O161" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s">
+        <v>342</v>
+      </c>
+      <c r="C162" t="s">
+        <v>343</v>
+      </c>
+      <c r="D162">
+        <v>160</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <v>280</v>
+      </c>
+      <c r="G162">
+        <v>4</v>
+      </c>
+      <c r="H162">
+        <v>7</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>12</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
+        <v>1</v>
+      </c>
+      <c r="M162" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
+        <v>125</v>
+      </c>
+      <c r="O162" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" t="s">
+        <v>344</v>
+      </c>
+      <c r="C163" t="s">
+        <v>345</v>
+      </c>
+      <c r="D163">
+        <v>130</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>180</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>4</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>10</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="b">
+        <v>1</v>
+      </c>
+      <c r="M163" t="b">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
+        <v>125</v>
+      </c>
+      <c r="O163" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" t="s">
+        <v>346</v>
+      </c>
+      <c r="C164" t="s">
+        <v>347</v>
+      </c>
+      <c r="D164">
+        <v>140</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>300</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>6</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>15</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
+        <v>1</v>
+      </c>
+      <c r="M164" t="b">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>125</v>
+      </c>
+      <c r="O164" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>348</v>
+      </c>
+      <c r="B165" t="s">
+        <v>349</v>
+      </c>
+      <c r="C165" t="s">
+        <v>350</v>
+      </c>
+      <c r="D165">
+        <v>180</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>380</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>11</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>18</v>
+      </c>
+      <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" t="b">
+        <v>1</v>
+      </c>
+      <c r="M165" t="b">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
+        <v>125</v>
+      </c>
+      <c r="O165" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>348</v>
+      </c>
+      <c r="B166" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" t="s">
+        <v>352</v>
+      </c>
+      <c r="D166">
+        <v>180</v>
+      </c>
+      <c r="E166">
+        <v>6</v>
+      </c>
+      <c r="F166">
+        <v>530</v>
+      </c>
+      <c r="G166">
+        <v>2</v>
+      </c>
+      <c r="H166">
+        <v>11</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>18</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="b">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
+        <v>125</v>
+      </c>
+      <c r="O166" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" t="s">
+        <v>353</v>
+      </c>
+      <c r="C167" t="s">
+        <v>354</v>
+      </c>
+      <c r="D167">
+        <v>210</v>
+      </c>
+      <c r="E167">
+        <v>7</v>
+      </c>
+      <c r="F167">
+        <v>580</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+      <c r="H167">
+        <v>13</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>20</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
+        <v>125</v>
+      </c>
+      <c r="O167" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" t="s">
+        <v>355</v>
+      </c>
+      <c r="C168" t="s">
+        <v>356</v>
+      </c>
+      <c r="D168">
+        <v>200</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>420</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
+        <v>11</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>20</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
+        <v>1</v>
+      </c>
+      <c r="M168" t="b">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
+        <v>125</v>
+      </c>
+      <c r="O168" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" t="s">
+        <v>357</v>
+      </c>
+      <c r="C169" t="s">
+        <v>358</v>
+      </c>
+      <c r="D169">
+        <v>280</v>
+      </c>
+      <c r="E169">
+        <v>13</v>
+      </c>
+      <c r="F169">
+        <v>620</v>
+      </c>
+      <c r="G169">
+        <v>6</v>
+      </c>
+      <c r="H169">
+        <v>18</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>25</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
+        <v>125</v>
+      </c>
+      <c r="O169" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>348</v>
+      </c>
+      <c r="B170" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170">
+        <v>210</v>
+      </c>
+      <c r="E170">
+        <v>7</v>
+      </c>
+      <c r="F170">
+        <v>570</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="H170">
+        <v>9</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>25</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="b">
+        <v>1</v>
+      </c>
+      <c r="M170" t="b">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
+        <v>125</v>
+      </c>
+      <c r="O170" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" t="s">
+        <v>361</v>
+      </c>
+      <c r="C171" t="s">
+        <v>362</v>
+      </c>
+      <c r="D171">
+        <v>230</v>
+      </c>
+      <c r="E171">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>700</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>12</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>26</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
+        <v>125</v>
+      </c>
+      <c r="O171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>348</v>
+      </c>
+      <c r="B172" t="s">
+        <v>363</v>
+      </c>
+      <c r="C172" t="s">
+        <v>364</v>
+      </c>
+      <c r="D172">
+        <v>250</v>
+      </c>
+      <c r="E172">
+        <v>9</v>
+      </c>
+      <c r="F172">
+        <v>770</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172">
+        <v>13</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>27</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>125</v>
+      </c>
+      <c r="O172" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173" t="s">
+        <v>365</v>
+      </c>
+      <c r="C173" t="s">
+        <v>366</v>
+      </c>
+      <c r="D173">
+        <v>150</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>270</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>27</v>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="b">
+        <v>1</v>
+      </c>
+      <c r="M173" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
+        <v>125</v>
+      </c>
+      <c r="O173" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" t="s">
+        <v>365</v>
+      </c>
+      <c r="C174" t="s">
+        <v>367</v>
+      </c>
+      <c r="D174">
+        <v>170</v>
+      </c>
+      <c r="E174">
+        <v>4</v>
+      </c>
+      <c r="F174">
+        <v>370</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+      <c r="H174">
+        <v>5</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>27</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>1</v>
+      </c>
+      <c r="M174" t="b">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
+        <v>125</v>
+      </c>
+      <c r="O174" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>368</v>
+      </c>
+      <c r="C175" t="s">
+        <v>369</v>
+      </c>
+      <c r="D175">
+        <v>110</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>260</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>4.5</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>14</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="b">
+        <v>1</v>
+      </c>
+      <c r="M175" t="b">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
+        <v>125</v>
+      </c>
+      <c r="O175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" t="s">
+        <v>370</v>
+      </c>
+      <c r="D176">
+        <v>210</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176">
+        <v>280</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>9</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>13</v>
+      </c>
+      <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" t="b">
+        <v>1</v>
+      </c>
+      <c r="M176" t="b">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
+        <v>125</v>
+      </c>
+      <c r="O176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" t="s">
+        <v>371</v>
+      </c>
+      <c r="C177" t="s">
+        <v>372</v>
+      </c>
+      <c r="D177">
+        <v>820</v>
+      </c>
+      <c r="E177">
+        <v>75</v>
+      </c>
+      <c r="F177">
+        <v>1850</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>61</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>3</v>
+      </c>
+      <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177" t="b">
+        <v>1</v>
+      </c>
+      <c r="N177" t="s">
+        <v>125</v>
+      </c>
+      <c r="O177" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s">
+        <v>371</v>
+      </c>
+      <c r="C178" t="s">
+        <v>373</v>
+      </c>
+      <c r="D178">
+        <v>980</v>
+      </c>
+      <c r="E178">
+        <v>75</v>
+      </c>
+      <c r="F178">
+        <v>2060</v>
+      </c>
+      <c r="G178">
+        <v>17</v>
+      </c>
+      <c r="H178">
+        <v>58</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <v>45</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>1</v>
+      </c>
+      <c r="N178" t="s">
+        <v>125</v>
+      </c>
+      <c r="O178" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" t="s">
+        <v>371</v>
+      </c>
+      <c r="C179" t="s">
+        <v>374</v>
+      </c>
+      <c r="D179">
+        <v>970</v>
+      </c>
+      <c r="E179">
+        <v>75</v>
+      </c>
+      <c r="F179">
+        <v>2280</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+      <c r="H179">
+        <v>58</v>
+      </c>
+      <c r="I179">
+        <v>4</v>
+      </c>
+      <c r="J179">
+        <v>5</v>
+      </c>
+      <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
+        <v>125</v>
+      </c>
+      <c r="O179" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" t="s">
+        <v>375</v>
+      </c>
+      <c r="D180">
+        <v>1010</v>
+      </c>
+      <c r="E180">
+        <v>75</v>
+      </c>
+      <c r="F180">
+        <v>2040</v>
+      </c>
+      <c r="G180">
+        <v>15</v>
+      </c>
+      <c r="H180">
+        <v>62</v>
+      </c>
+      <c r="I180">
+        <v>3</v>
+      </c>
+      <c r="J180">
+        <v>30</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>1</v>
+      </c>
+      <c r="N180" t="s">
+        <v>125</v>
+      </c>
+      <c r="O180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>348</v>
+      </c>
+      <c r="B181" t="s">
+        <v>376</v>
+      </c>
+      <c r="C181" t="s">
+        <v>377</v>
+      </c>
+      <c r="D181">
+        <v>650</v>
+      </c>
+      <c r="E181">
+        <v>43</v>
+      </c>
+      <c r="F181">
+        <v>1530</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>35</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>30</v>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" t="b">
+        <v>1</v>
+      </c>
+      <c r="N181" t="s">
+        <v>125</v>
+      </c>
+      <c r="O181" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>378</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C182" t="s">
+        <v>379</v>
+      </c>
+      <c r="D182">
+        <v>100</v>
+      </c>
+      <c r="E182">
+        <v>7</v>
+      </c>
+      <c r="F182">
+        <v>80</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>8</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" t="b">
+        <v>1</v>
+      </c>
+      <c r="M182" t="b">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
+        <v>10</v>
+      </c>
+      <c r="O182" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>381</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C183" t="s">
+        <v>382</v>
+      </c>
+      <c r="D183">
+        <v>460</v>
+      </c>
+      <c r="E183">
+        <v>19</v>
+      </c>
+      <c r="F183">
+        <v>790</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>28</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>34</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" t="b">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
+        <v>10</v>
+      </c>
+      <c r="O183" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>381</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C184" t="s">
+        <v>383</v>
+      </c>
+      <c r="D184">
+        <v>260</v>
+      </c>
+      <c r="E184">
+        <v>12</v>
+      </c>
+      <c r="F184">
+        <v>910</v>
+      </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <v>10</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <v>34</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
+        <v>1</v>
+      </c>
+      <c r="M184" t="b">
+        <v>1</v>
+      </c>
+      <c r="N184" t="s">
+        <v>250</v>
+      </c>
+      <c r="O184" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>384</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C185" t="s">
+        <v>385</v>
+      </c>
+      <c r="D185">
+        <v>45</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>10</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+      <c r="H185">
+        <v>1.5</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>7</v>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="b">
+        <v>1</v>
+      </c>
+      <c r="M185" t="b">
+        <v>1</v>
+      </c>
+      <c r="N185" t="s">
+        <v>10</v>
+      </c>
+      <c r="O185" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>387</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C186" t="s">
+        <v>386</v>
+      </c>
+      <c r="D186">
+        <v>100</v>
+      </c>
+      <c r="E186">
+        <v>9</v>
+      </c>
+      <c r="F186">
+        <v>370</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>7</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" t="b">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
+        <v>10</v>
+      </c>
+      <c r="O186" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>387</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C187" t="s">
+        <v>388</v>
+      </c>
+      <c r="D187">
+        <v>90</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>400</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>8</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>18</v>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="b">
+        <v>1</v>
+      </c>
+      <c r="M187" t="b">
+        <v>1</v>
+      </c>
+      <c r="N187" t="s">
+        <v>10</v>
+      </c>
+      <c r="O187" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>387</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188">
+        <v>140</v>
+      </c>
+      <c r="E188">
+        <v>12</v>
+      </c>
+      <c r="F188">
+        <v>320</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>9</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
+        <v>1</v>
+      </c>
+      <c r="M188" t="b">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
+        <v>10</v>
+      </c>
+      <c r="O188" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>387</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C189" t="s">
+        <v>389</v>
+      </c>
+      <c r="D189">
+        <v>90</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>260</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>12</v>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="b">
+        <v>1</v>
+      </c>
+      <c r="M189" t="b">
+        <v>1</v>
+      </c>
+      <c r="N189" t="s">
+        <v>10</v>
+      </c>
+      <c r="O189" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>387</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C190" t="s">
+        <v>390</v>
+      </c>
+      <c r="D190">
+        <v>160</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>500</v>
+      </c>
+      <c r="G190">
+        <v>6</v>
+      </c>
+      <c r="H190">
+        <v>1.5</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>33</v>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
+        <v>1</v>
+      </c>
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
+        <v>10</v>
+      </c>
+      <c r="O190" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>387</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>180</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+      <c r="F191">
+        <v>190</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>18</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" t="b">
+        <v>1</v>
+      </c>
+      <c r="N191" t="s">
+        <v>10</v>
+      </c>
+      <c r="O191" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C192" t="s">
+        <v>393</v>
+      </c>
+      <c r="D192">
+        <v>110</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192">
+        <v>20</v>
+      </c>
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" t="b">
+        <v>1</v>
+      </c>
+      <c r="M192" t="b">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
+        <v>10</v>
+      </c>
+      <c r="O192" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>160</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>135</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>8</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>21</v>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="b">
+        <v>1</v>
+      </c>
+      <c r="M193" t="b">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
+        <v>10</v>
+      </c>
+      <c r="O193" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C194" t="s">
+        <v>91</v>
+      </c>
+      <c r="D194">
+        <v>220</v>
+      </c>
+      <c r="E194">
+        <v>11</v>
+      </c>
+      <c r="F194">
+        <v>115</v>
+      </c>
+      <c r="G194">
+        <v>28</v>
+      </c>
+      <c r="H194">
+        <v>2.5</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>44</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" t="b">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>10</v>
+      </c>
+      <c r="O194" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>394</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C195" t="s">
+        <v>395</v>
+      </c>
+      <c r="D195">
+        <v>35</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <v>8</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>8</v>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="b">
+        <v>1</v>
+      </c>
+      <c r="M195" t="b">
+        <v>1</v>
+      </c>
+      <c r="N195" t="s">
+        <v>10</v>
+      </c>
+      <c r="O195" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C196" t="s">
+        <v>396</v>
+      </c>
+      <c r="D196">
+        <v>50</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>9</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>13</v>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="b">
+        <v>1</v>
+      </c>
+      <c r="M196" t="b">
+        <v>1</v>
+      </c>
+      <c r="N196" t="s">
+        <v>10</v>
+      </c>
+      <c r="O196" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C197" t="s">
+        <v>397</v>
+      </c>
+      <c r="D197">
+        <v>690</v>
+      </c>
+      <c r="E197">
+        <v>73</v>
+      </c>
+      <c r="F197">
+        <v>260</v>
+      </c>
+      <c r="G197">
+        <v>91</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>100</v>
+      </c>
+      <c r="K197" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" t="b">
+        <v>1</v>
+      </c>
+      <c r="M197" t="b">
+        <v>1</v>
+      </c>
+      <c r="N197" t="s">
+        <v>10</v>
+      </c>
+      <c r="O197" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C198" t="s">
+        <v>398</v>
+      </c>
+      <c r="D198">
+        <v>170</v>
+      </c>
+      <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>290</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>34</v>
+      </c>
+      <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" t="b">
+        <v>1</v>
+      </c>
+      <c r="M198" t="b">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
+        <v>10</v>
+      </c>
+      <c r="O198" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C199" t="s">
+        <v>399</v>
+      </c>
+      <c r="D199">
+        <v>310</v>
+      </c>
+      <c r="E199">
+        <v>11</v>
+      </c>
+      <c r="F199">
+        <v>580</v>
+      </c>
+      <c r="G199">
+        <v>8</v>
+      </c>
+      <c r="H199">
+        <v>2.5</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>61</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
+        <v>1</v>
+      </c>
+      <c r="M199" t="b">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>10</v>
+      </c>
+      <c r="O199" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>400</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C200" t="s">
+        <v>401</v>
+      </c>
+      <c r="D200">
+        <v>290</v>
+      </c>
+      <c r="E200">
+        <v>14</v>
+      </c>
+      <c r="F200">
+        <v>890</v>
+      </c>
+      <c r="G200">
+        <v>5</v>
+      </c>
+      <c r="H200">
+        <v>13</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>27</v>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" t="b">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
+        <v>60</v>
+      </c>
+      <c r="O200" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C201" t="s">
+        <v>402</v>
+      </c>
+      <c r="D201">
+        <v>260</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201">
+        <v>230</v>
+      </c>
+      <c r="G201">
+        <v>5</v>
+      </c>
+      <c r="H201">
+        <v>3.5</v>
+      </c>
+      <c r="I201">
+        <v>6</v>
+      </c>
+      <c r="J201">
+        <v>49</v>
+      </c>
+      <c r="K201" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" t="b">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
+        <v>60</v>
+      </c>
+      <c r="O201" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C202" t="s">
+        <v>403</v>
+      </c>
+      <c r="D202">
+        <v>390</v>
+      </c>
+      <c r="E202">
+        <v>21</v>
+      </c>
+      <c r="F202">
+        <v>1140</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>21</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>29</v>
+      </c>
+      <c r="K202" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" t="b">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
+        <v>60</v>
+      </c>
+      <c r="O202" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C203" t="s">
+        <v>404</v>
+      </c>
+      <c r="D203">
+        <v>440</v>
+      </c>
+      <c r="E203">
+        <v>13</v>
+      </c>
+      <c r="F203">
+        <v>830</v>
+      </c>
+      <c r="G203">
+        <v>6</v>
+      </c>
+      <c r="H203">
+        <v>21</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>50</v>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="b">
+        <v>1</v>
+      </c>
+      <c r="M203" t="b">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
+        <v>60</v>
+      </c>
+      <c r="O203" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C204" t="s">
+        <v>405</v>
+      </c>
+      <c r="D204">
+        <v>120</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>670</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>3.5</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>22</v>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="b">
+        <v>1</v>
+      </c>
+      <c r="M204" t="b">
+        <v>1</v>
+      </c>
+      <c r="N204" t="s">
+        <v>60</v>
+      </c>
+      <c r="O204" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>378</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C205" t="s">
+        <v>406</v>
+      </c>
+      <c r="D205">
+        <v>190</v>
+      </c>
+      <c r="E205">
+        <v>31</v>
+      </c>
+      <c r="F205">
+        <v>590</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>6</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>3</v>
+      </c>
+      <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" t="b">
+        <v>1</v>
+      </c>
+      <c r="N205" t="s">
+        <v>60</v>
+      </c>
+      <c r="O205" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>378</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C206" t="s">
+        <v>401</v>
+      </c>
+      <c r="D206">
+        <v>290</v>
+      </c>
+      <c r="E206">
+        <v>14</v>
+      </c>
+      <c r="F206">
+        <v>890</v>
+      </c>
+      <c r="G206">
+        <v>5</v>
+      </c>
+      <c r="H206">
+        <v>13</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>27</v>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" t="b">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
+        <v>60</v>
+      </c>
+      <c r="O206" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C207" t="s">
+        <v>402</v>
+      </c>
+      <c r="D207">
+        <v>260</v>
+      </c>
+      <c r="E207">
+        <v>8</v>
+      </c>
+      <c r="F207">
+        <v>230</v>
+      </c>
+      <c r="G207">
+        <v>5</v>
+      </c>
+      <c r="H207">
+        <v>3.5</v>
+      </c>
+      <c r="I207">
+        <v>6</v>
+      </c>
+      <c r="J207">
+        <v>49</v>
+      </c>
+      <c r="K207" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" t="b">
+        <v>0</v>
+      </c>
+      <c r="N207" t="s">
+        <v>60</v>
+      </c>
+      <c r="O207" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>378</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" t="s">
+        <v>404</v>
+      </c>
+      <c r="D208">
+        <v>440</v>
+      </c>
+      <c r="E208">
+        <v>13</v>
+      </c>
+      <c r="F208">
+        <v>830</v>
+      </c>
+      <c r="G208">
+        <v>6</v>
+      </c>
+      <c r="H208">
+        <v>21</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>50</v>
+      </c>
+      <c r="K208" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" t="b">
+        <v>1</v>
+      </c>
+      <c r="M208" t="b">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
+        <v>60</v>
+      </c>
+      <c r="O208" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>378</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C209" t="s">
+        <v>405</v>
+      </c>
+      <c r="D209">
+        <v>120</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>670</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>3.5</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>22</v>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="b">
+        <v>1</v>
+      </c>
+      <c r="M209" t="b">
+        <v>1</v>
+      </c>
+      <c r="N209" t="s">
+        <v>60</v>
+      </c>
+      <c r="O209" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>384</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C210" t="s">
+        <v>65</v>
+      </c>
+      <c r="D210">
+        <v>170</v>
+      </c>
+      <c r="E210">
+        <v>25</v>
+      </c>
+      <c r="F210">
+        <v>270</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>7</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="b">
+        <v>1</v>
+      </c>
+      <c r="M210" t="b">
+        <v>1</v>
+      </c>
+      <c r="N210" t="s">
+        <v>60</v>
+      </c>
+      <c r="O210" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>384</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C211" t="s">
+        <v>407</v>
+      </c>
+      <c r="D211">
+        <v>120</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>75</v>
+      </c>
+      <c r="G211">
+        <v>6</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>4</v>
+      </c>
+      <c r="J211">
+        <v>28</v>
+      </c>
+      <c r="K211" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" t="b">
+        <v>1</v>
+      </c>
+      <c r="N211" t="s">
+        <v>60</v>
+      </c>
+      <c r="O211" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>384</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C212" t="s">
+        <v>408</v>
+      </c>
+      <c r="D212">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>30</v>
+      </c>
+      <c r="G212">
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>4</v>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="b">
+        <v>1</v>
+      </c>
+      <c r="M212" t="b">
+        <v>1</v>
+      </c>
+      <c r="N212" t="s">
+        <v>60</v>
+      </c>
+      <c r="O212" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>387</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C213" t="s">
+        <v>409</v>
+      </c>
+      <c r="D213">
+        <v>110</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213">
+        <v>170</v>
+      </c>
+      <c r="G213">
+        <v>2</v>
+      </c>
+      <c r="H213">
+        <v>3.5</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213">
+        <v>17</v>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="b">
+        <v>1</v>
+      </c>
+      <c r="M213" t="b">
+        <v>1</v>
+      </c>
+      <c r="N213" t="s">
+        <v>60</v>
+      </c>
+      <c r="O213" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>387</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C214" t="s">
+        <v>410</v>
+      </c>
+      <c r="D214">
+        <v>220</v>
+      </c>
+      <c r="E214">
+        <v>13</v>
+      </c>
+      <c r="F214">
+        <v>880</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214">
+        <v>17</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>4</v>
+      </c>
+      <c r="K214" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" t="b">
+        <v>1</v>
+      </c>
+      <c r="M214" t="b">
+        <v>1</v>
+      </c>
+      <c r="N214" t="s">
+        <v>60</v>
+      </c>
+      <c r="O214" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>392</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C215" t="s">
+        <v>411</v>
+      </c>
+      <c r="D215">
+        <v>130</v>
+      </c>
+      <c r="E215">
+        <v>3</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>30</v>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="b">
+        <v>1</v>
+      </c>
+      <c r="M215" t="b">
+        <v>1</v>
+      </c>
+      <c r="N215" t="s">
+        <v>60</v>
+      </c>
+      <c r="O215" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" ht="153" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>392</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C216" t="s">
+        <v>412</v>
+      </c>
+      <c r="D216">
+        <v>190</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+      <c r="F216">
+        <v>780</v>
+      </c>
+      <c r="G216">
+        <v>9</v>
+      </c>
+      <c r="H216">
+        <v>13</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216">
+        <v>16</v>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="b">
+        <v>1</v>
+      </c>
+      <c r="M216" t="b">
+        <v>1</v>
+      </c>
+      <c r="N216" t="s">
+        <v>60</v>
+      </c>
+      <c r="O216" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>394</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C217" t="s">
+        <v>413</v>
+      </c>
+      <c r="D217">
+        <v>110</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>70</v>
+      </c>
+      <c r="G217">
+        <v>2</v>
+      </c>
+      <c r="H217">
+        <v>3</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>21</v>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="b">
+        <v>1</v>
+      </c>
+      <c r="M217" t="b">
+        <v>1</v>
+      </c>
+      <c r="N217" t="s">
+        <v>60</v>
+      </c>
+      <c r="O217" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>394</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C218" t="s">
+        <v>414</v>
+      </c>
+      <c r="D218">
+        <v>90</v>
+      </c>
+      <c r="E218">
+        <v>9</v>
+      </c>
+      <c r="F218">
+        <v>95</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>9</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>2</v>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="b">
+        <v>1</v>
+      </c>
+      <c r="M218" t="b">
+        <v>1</v>
+      </c>
+      <c r="N218" t="s">
+        <v>60</v>
+      </c>
+      <c r="O218" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>394</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C219" t="s">
+        <v>397</v>
+      </c>
+      <c r="D219">
+        <v>690</v>
+      </c>
+      <c r="E219">
+        <v>73</v>
+      </c>
+      <c r="F219">
+        <v>260</v>
+      </c>
+      <c r="G219">
+        <v>91</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>100</v>
+      </c>
+      <c r="K219" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" t="b">
+        <v>1</v>
+      </c>
+      <c r="M219" t="b">
+        <v>1</v>
+      </c>
+      <c r="N219" t="s">
+        <v>60</v>
+      </c>
+      <c r="O219" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>